--- a/GITAU MOSES.xlsx
+++ b/GITAU MOSES.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="18195" windowHeight="9780" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="18195" windowHeight="9780" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="JUNE 21" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="75">
   <si>
     <t xml:space="preserve">RENT STATEMENT </t>
   </si>
@@ -238,13 +238,13 @@
     <t>VACCATED</t>
   </si>
   <si>
-    <t>WILFRED PAID LL</t>
-  </si>
-  <si>
     <t>CONSOLATA VACCATED</t>
   </si>
   <si>
-    <t>VACCANT</t>
+    <t>CAROLYNE ACHIENG</t>
+  </si>
+  <si>
+    <t>PAID ON 15/12</t>
   </si>
 </sst>
 </file>
@@ -370,7 +370,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -412,7 +412,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3085,7 +3084,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3850,7 +3849,7 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4612,8 +4611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4939,6 +4938,7 @@
         <v>4100</v>
       </c>
       <c r="G13" s="3">
+        <f>2100</f>
         <v>2100</v>
       </c>
       <c r="H13" s="3">
@@ -5334,14 +5334,10 @@
       <c r="J30" s="18"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="24" t="s">
-        <v>72</v>
-      </c>
+      <c r="B31" s="24"/>
       <c r="C31" s="24"/>
       <c r="D31" s="18"/>
-      <c r="E31" s="18">
-        <v>2000</v>
-      </c>
+      <c r="E31" s="18"/>
       <c r="F31" s="18"/>
       <c r="G31" s="24"/>
       <c r="H31" s="24"/>
@@ -5350,7 +5346,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B32" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C32" s="25"/>
       <c r="D32" s="18"/>
@@ -5385,11 +5381,11 @@
       </c>
       <c r="E34" s="22">
         <f>SUM(E28:E33)</f>
-        <v>29700</v>
+        <v>27700</v>
       </c>
       <c r="F34" s="22">
         <f>D34-E34</f>
-        <v>-4100</v>
+        <v>-2100</v>
       </c>
       <c r="G34" s="17" t="s">
         <v>18</v>
@@ -5452,10 +5448,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5543,10 +5539,12 @@
         <f>C5+D5+E5</f>
         <v>5200</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3">
+        <v>3500</v>
+      </c>
       <c r="H5" s="3">
         <f>F5-G5</f>
-        <v>5200</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -5599,10 +5597,13 @@
         <f t="shared" si="0"/>
         <v>2700</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3">
+        <f>2000</f>
+        <v>2000</v>
+      </c>
       <c r="H7" s="3">
         <f>F7-G7</f>
-        <v>2700</v>
+        <v>700</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -5638,17 +5639,23 @@
       <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="B9" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="3"/>
+      <c r="B9" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="3">
+        <v>100</v>
+      </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3">
+        <v>2000</v>
+      </c>
       <c r="F9" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="3"/>
+        <v>2100</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2100</v>
+      </c>
       <c r="H9" s="3">
         <f t="shared" ref="H9:H17" si="1">F9-G9</f>
         <v>0</v>
@@ -5675,10 +5682,12 @@
         <f>C10+D10+E10</f>
         <v>2200</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3">
+        <v>2000</v>
+      </c>
       <c r="H10" s="3">
         <f t="shared" si="1"/>
-        <v>2200</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -5702,10 +5711,12 @@
         <f t="shared" si="0"/>
         <v>2200</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="3">
+        <v>2000</v>
+      </c>
       <c r="H11" s="3">
         <f t="shared" si="1"/>
-        <v>2200</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -5784,10 +5795,12 @@
         <f t="shared" si="0"/>
         <v>2420</v>
       </c>
-      <c r="G14" s="3"/>
+      <c r="G14" s="3">
+        <v>2100</v>
+      </c>
       <c r="H14" s="3">
         <f t="shared" si="1"/>
-        <v>2420</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -5811,10 +5824,12 @@
         <f t="shared" si="0"/>
         <v>2200</v>
       </c>
-      <c r="G15" s="3"/>
+      <c r="G15" s="3">
+        <v>2100</v>
+      </c>
       <c r="H15" s="3">
         <f t="shared" si="1"/>
-        <v>2200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -5838,13 +5853,15 @@
         <f t="shared" si="0"/>
         <v>2100</v>
       </c>
-      <c r="G16" s="3"/>
+      <c r="G16" s="3">
+        <v>2100</v>
+      </c>
       <c r="H16" s="3">
         <f t="shared" si="1"/>
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -5865,20 +5882,22 @@
         <f t="shared" si="0"/>
         <v>2700</v>
       </c>
-      <c r="G17" s="3"/>
+      <c r="G17" s="3">
+        <v>2600</v>
+      </c>
       <c r="H17" s="3">
         <f t="shared" si="1"/>
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="2">
         <f>SUM(C5:C17)</f>
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="D18" s="3">
         <f>SUM(D5:D17)</f>
@@ -5886,22 +5905,22 @@
       </c>
       <c r="E18" s="2">
         <f>SUM(E5:E17)</f>
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" ref="F18:H18" si="2">SUM(F5:F17)</f>
-        <v>32120</v>
+        <v>34220</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" si="2"/>
-        <v>10450</v>
+        <v>30950</v>
       </c>
       <c r="H18" s="2">
         <f t="shared" si="2"/>
-        <v>21670</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -5913,7 +5932,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>10</v>
       </c>
@@ -5927,7 +5946,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="14"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B21" s="15" t="s">
         <v>11</v>
       </c>
@@ -5943,7 +5962,7 @@
       <c r="J21" s="8"/>
       <c r="K21" s="14"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B22" s="17" t="s">
         <v>12</v>
       </c>
@@ -5970,14 +5989,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="s">
         <v>70</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="19">
         <f>E18</f>
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
@@ -5986,20 +6005,24 @@
       </c>
       <c r="H23" s="19">
         <f>G18</f>
-        <v>10450</v>
+        <v>30950</v>
       </c>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
       <c r="K23" s="14"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N23">
+        <f>E18</f>
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B24" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="19">
-        <f>'NOVEMBER 21'!F34</f>
-        <v>-4100</v>
+        <f>-1000</f>
+        <v>-1000</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
@@ -6013,19 +6036,27 @@
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
       <c r="K24" s="14"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N24" s="14">
+        <f>E26</f>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B25" s="20" t="s">
         <v>65</v>
       </c>
       <c r="D25">
         <f>C18</f>
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N25" s="14">
+        <f>N23-N24</f>
+        <v>24300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="s">
         <v>16</v>
       </c>
@@ -6035,7 +6066,7 @@
       </c>
       <c r="E26" s="19">
         <f>D23*D26</f>
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18" t="s">
@@ -6046,11 +6077,14 @@
       </c>
       <c r="I26" s="19">
         <f>E26</f>
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="J26" s="18"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N26">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B27" s="17" t="s">
         <v>17</v>
       </c>
@@ -6063,8 +6097,12 @@
       <c r="H27" s="22"/>
       <c r="I27" s="17"/>
       <c r="J27" s="17"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N27" s="14">
+        <f>N25+N26</f>
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B28" s="23" t="s">
         <v>40</v>
       </c>
@@ -6082,18 +6120,37 @@
         <v>15000</v>
       </c>
       <c r="J28" s="18"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="24"/>
+      <c r="N28">
+        <v>1000</v>
+      </c>
+      <c r="P28">
+        <f>15000*7</f>
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="24" t="s">
+        <v>74</v>
+      </c>
       <c r="C29" s="24"/>
       <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="G29" s="24"/>
+      <c r="E29" s="18">
+        <v>9600</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>74</v>
+      </c>
       <c r="H29" s="24"/>
-      <c r="I29" s="18"/>
+      <c r="I29" s="18">
+        <v>9600</v>
+      </c>
       <c r="J29" s="18"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N29" s="14">
+        <f>N27-N28</f>
+        <v>24600</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B30" s="24"/>
       <c r="C30" s="24"/>
       <c r="D30" s="18"/>
@@ -6103,8 +6160,11 @@
       <c r="H30" s="24"/>
       <c r="I30" s="18"/>
       <c r="J30" s="18"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N30">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B31" s="24"/>
       <c r="C31" s="24"/>
       <c r="D31" s="18"/>
@@ -6114,8 +6174,12 @@
       <c r="H31" s="24"/>
       <c r="I31" s="18"/>
       <c r="J31" s="18"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N31" s="14">
+        <f>N29-N30</f>
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
       <c r="D32" s="18"/>
@@ -6143,30 +6207,30 @@
       <c r="C34" s="17"/>
       <c r="D34" s="22">
         <f>D23+D24+D25-E26</f>
-        <v>19600</v>
+        <v>24600</v>
       </c>
       <c r="E34" s="22">
         <f>SUM(E28:E33)</f>
-        <v>15000</v>
+        <v>24600</v>
       </c>
       <c r="F34" s="22">
         <f>D34-E34</f>
-        <v>4600</v>
+        <v>0</v>
       </c>
       <c r="G34" s="17" t="s">
         <v>18</v>
       </c>
       <c r="H34" s="22">
         <f>H23+H24-I26</f>
-        <v>-2070</v>
+        <v>18230</v>
       </c>
       <c r="I34" s="22">
         <f>SUM(I28:I33)</f>
-        <v>15000</v>
+        <v>24600</v>
       </c>
       <c r="J34" s="22">
         <f>H34-I34</f>
-        <v>-17070</v>
+        <v>-6370</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
@@ -6197,5 +6261,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>